--- a/data/trans_dic/P16B03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,18%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>73,22; 97,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>63,02; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>56,93; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>84,92; 96,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>89,12; 97,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>86,15; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>84,59; 95,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>88,06; 97,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>86,66; 98,56</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,05%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>45,46; 86,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>45,56; 90,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>52,31; 90,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>79,94; 94,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>82,63; 97,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>74,79; 92,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>75,33; 90,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>78,37; 93,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>73,36; 89,2</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,02%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>31,23; 84,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>19,03; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>17,73; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>50,54; 94,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>81,71; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>56,37; 91,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>50,65; 83,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>75,76; 97,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>57,63; 89,65</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,53%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>63,88; 85,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>63,95; 91,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>61,79; 89,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>83,08; 93,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>89,4; 96,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>82,05; 92,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>80,29; 89,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>87,4; 94,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>79,78; 89,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,22; 97,13</t>
+          <t>74,17; 97,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,02; 100,0</t>
+          <t>64,87; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,93; 100,0</t>
+          <t>63,89; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,92; 96,52</t>
+          <t>84,73; 96,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,12; 97,97</t>
+          <t>88,3; 98,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,15; 100,0</t>
+          <t>86,92; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,59; 95,12</t>
+          <t>84,89; 95,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,06; 97,45</t>
+          <t>88,1; 97,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,66; 98,56</t>
+          <t>86,76; 98,54</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,46; 86,82</t>
+          <t>49,07; 87,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,56; 90,94</t>
+          <t>48,57; 90,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,31; 90,27</t>
+          <t>52,65; 88,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,94; 94,63</t>
+          <t>80,15; 94,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,63; 97,37</t>
+          <t>82,75; 97,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,79; 92,83</t>
+          <t>75,85; 92,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,33; 90,93</t>
+          <t>74,96; 91,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>78,37; 93,85</t>
+          <t>78,04; 93,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>73,36; 89,2</t>
+          <t>73,37; 88,99</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,23; 84,33</t>
+          <t>34,76; 83,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,03; 100,0</t>
+          <t>19,64; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,73; 100,0</t>
+          <t>16,49; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,54; 94,15</t>
+          <t>49,76; 93,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,71; 100,0</t>
+          <t>82,61; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,37; 91,74</t>
+          <t>55,92; 92,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,65; 83,41</t>
+          <t>50,91; 84,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,76; 97,4</t>
+          <t>78,03; 97,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>57,63; 89,65</t>
+          <t>58,86; 89,55</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,88; 85,53</t>
+          <t>64,84; 85,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,95; 91,04</t>
+          <t>62,68; 91,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,79; 89,63</t>
+          <t>61,27; 88,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,08; 93,03</t>
+          <t>83,38; 93,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,4; 96,58</t>
+          <t>89,09; 96,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,05; 92,55</t>
+          <t>82,04; 92,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,29; 89,48</t>
+          <t>81,3; 89,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,4; 94,47</t>
+          <t>87,01; 94,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,78; 89,9</t>
+          <t>80,12; 90,01</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas recostituyentes fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>26731</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15127</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9934</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>80060</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>102918</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>50313</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>106791</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>118045</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>60247</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22470; 29413</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10547; 16259</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6937; 10858</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>73778; 84087</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>96408; 107058</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>45580; 52441</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>99633; 111815</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>110509; 122205</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54915; 62376</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15830</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15867</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>61170</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>71227</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57071</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>77000</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87093</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>74796</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11020; 19637</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10448; 19569</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12763; 21369</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>55053; 64955</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>63939; 75154</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>50759; 61972</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>68324; 83119</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>77086; 92654</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>66889; 81129</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9914</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4011</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12571</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25681</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19256</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22484</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29692</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23488</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5549; 13310</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1163; 5920</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1049; 6360</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8161; 15389</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21961; 26585</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13722; 22584</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16478; 27239</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25363; 31693</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18188; 27671</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>52475</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35005</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31892</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>153800</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>199826</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>126639</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>206274</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>234830</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>158531</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44561; 58950</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27384; 39772</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25403; 36692</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>143551; 160205</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>189782; 205939</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>118058; 133545</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>195832; 216442</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>223382; 243307</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>148517; 166851</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>